--- a/2. 5school/5个学校.xlsx
+++ b/2. 5school/5个学校.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26420" windowHeight="15260" activeTab="1"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>居留法</t>
   </si>
@@ -121,36 +121,54 @@
     <t>经常失败</t>
   </si>
   <si>
+    <t>todo</t>
+  </si>
+  <si>
     <t>旅行签证</t>
   </si>
   <si>
+    <t>？？？</t>
+  </si>
+  <si>
     <t>动机信</t>
   </si>
   <si>
+    <t>todo ; 修改</t>
+  </si>
+  <si>
     <t>学位证书</t>
   </si>
   <si>
+    <t>个人简历</t>
+  </si>
+  <si>
+    <t>Containing full education and employment history.</t>
+  </si>
+  <si>
+    <t>完整介绍申请签证前的个人经历。建议提交清晰、一目了然的表格式的简历。</t>
+  </si>
+  <si>
+    <t>todo： 修改</t>
+  </si>
+  <si>
     <t>长期：</t>
   </si>
   <si>
-    <t>个人简历</t>
-  </si>
-  <si>
-    <t>Containing full education and employment history.</t>
-  </si>
-  <si>
-    <t>完整介绍申请签证前的个人经历。建议提交清晰、一目了然的表格式的简历。</t>
-  </si>
-  <si>
     <t>面试邀请函、公司</t>
   </si>
   <si>
     <t>先面几个</t>
   </si>
   <si>
+    <t>todo - -</t>
+  </si>
+  <si>
     <t>经济来源证明</t>
   </si>
   <si>
+    <t xml:space="preserve">todo - </t>
+  </si>
+  <si>
     <t>德国居住证明</t>
   </si>
   <si>
@@ -161,6 +179,9 @@
   </si>
   <si>
     <t>面试：知识，code</t>
+  </si>
+  <si>
+    <t>todo -</t>
   </si>
   <si>
     <t>项目整理</t>
@@ -255,15 +276,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,15 +305,100 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF191919"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,20 +412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -321,100 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,6 +434,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -437,13 +458,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,169 +524,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,16 +662,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,21 +726,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -715,16 +736,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,145 +754,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -882,11 +903,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1253,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1371,7 +1392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1384,196 +1405,229 @@
       <c r="D26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" ht="53" spans="1:4">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="2" t="s">
+    <row r="30" ht="53" spans="1:5">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" ht="17.6" spans="1:4">
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" ht="17.6" spans="4:4">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" ht="17.6" spans="1:5">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" ht="34" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/2. 5school/5个学校.xlsx
+++ b/2. 5school/5个学校.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
   <si>
     <t>居留法</t>
   </si>
@@ -127,7 +127,7 @@
     <t>旅行签证</t>
   </si>
   <si>
-    <t>？？？</t>
+    <t>done</t>
   </si>
   <si>
     <t>动机信</t>
@@ -211,19 +211,25 @@
     <t>可以自己翻译吗？还是需要什么</t>
   </si>
   <si>
+    <t>可以</t>
+  </si>
+  <si>
     <t>2. 最早可提前六个月递交</t>
   </si>
   <si>
     <t>这个是多久，如果1月1号递交，7月1日出去。那么可以8月1日再出去么？如果可以，那么可以停留的时间是变成5个月么？</t>
   </si>
   <si>
+    <t>提前就行了</t>
+  </si>
+  <si>
     <t>3. 《居留法》第 54 条的告知书</t>
   </si>
   <si>
     <t>这个是什么文件？在哪里可以找到</t>
   </si>
   <si>
-    <t>居留法是什么</t>
+    <t>可以不看</t>
   </si>
   <si>
     <t>4. 个人简历2分</t>
@@ -232,22 +238,34 @@
     <t>这个个人简历是什么为重点？从小学开始的个人介绍么？还是找工作的工作履历和技能介绍？</t>
   </si>
   <si>
+    <t>是的，履历</t>
+  </si>
+  <si>
     <t>5. 英文动机解释说明信</t>
   </si>
   <si>
     <t>需要多少字</t>
   </si>
   <si>
+    <t>在优化中</t>
+  </si>
+  <si>
     <t>6. 现工作单位出具的证明信</t>
   </si>
   <si>
     <t>工作证明么？证明什么？</t>
   </si>
   <si>
+    <t>是的，证明</t>
+  </si>
+  <si>
     <t>7. 财产证明</t>
   </si>
   <si>
     <t>是什么，怎么搞？</t>
+  </si>
+  <si>
+    <t>知道了</t>
   </si>
   <si>
     <t>8. 在德逗留期间的居住证明 （</t>
@@ -1274,8 +1292,8 @@
   <sheetPr/>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1542,92 +1560,119 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>61</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" ht="34" spans="1:3">
       <c r="A50" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>71</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>80</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
